--- a/MCS_Secondo_progetto/mcs2.1/mcs_2.1.xlsx
+++ b/MCS_Secondo_progetto/mcs2.1/mcs_2.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows10\Desktop\MCS\mcs2.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows10\Desktop\MCS\MCS_Secondo_progetto\mcs2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241D366B-AE71-47C3-98A0-3AA5F8DA1EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A823F109-B433-4D71-B0A4-5A8B449622A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98FDBC01-65F4-4A3F-B2A7-4410A021BAA9}"/>
+    <workbookView xWindow="915" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{98FDBC01-65F4-4A3F-B2A7-4410A021BAA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>DIMENSIONE MATRICE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>tend n^3</t>
+  </si>
+  <si>
+    <t>COR:</t>
   </si>
 </sst>
 </file>
@@ -291,20 +294,6 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Foglio1!$A$2:$A$9</c:f>
@@ -430,7 +419,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="b" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -706,20 +695,6 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Foglio1!$A$2:$A$9</c:f>
@@ -760,28 +735,28 @@
                 <c:formatCode>0.0000000000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>27.9743332862854</c:v>
+                  <c:v>3.3312874563078014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.796663284301701</c:v>
+                  <c:v>3.985211486229649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.660451650619507</c:v>
+                  <c:v>4.5396760735078514</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.000000000000">
-                  <c:v>150.67432212829499</c:v>
+                  <c:v>5.0151207529651307</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.000000000000">
-                  <c:v>221.49955439567501</c:v>
+                  <c:v>5.400420634265183</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.000000000000">
-                  <c:v>313.37751913070599</c:v>
+                  <c:v>5.7474086553285</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.000000000000">
-                  <c:v>434.28413629531798</c:v>
+                  <c:v>6.0736990753964131</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>582.89620375633206</c:v>
+                  <c:v>6.368009199015872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,6 +847,7 @@
         <c:axId val="15565632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1028,6 +1004,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Trend N^3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1052,6 +1031,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Foglio1!$A$2:$A$9</c:f>
@@ -1092,28 +1129,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8000000</c:v>
+                  <c:v>15.894952266056274</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15625000</c:v>
+                  <c:v>16.564382927007504</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27000000</c:v>
+                  <c:v>17.111347603115817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42875000</c:v>
+                  <c:v>17.57379964743923</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64000000</c:v>
+                  <c:v>17.97439382950682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91125000</c:v>
+                  <c:v>18.327742940175359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>125000000</c:v>
+                  <c:v>18.643824490458051</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>166375000</c:v>
+                  <c:v>18.929755032864573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,6 +1159,168 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B89A-497D-9062-2EA9AD376756}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>DCT A MANO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.3312874563078014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.985211486229649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5396760735078514</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000000000000">
+                  <c:v>5.0151207529651307</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000000000000">
+                  <c:v>5.400420634265183</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000000000000">
+                  <c:v>5.7474086553285</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000000000000">
+                  <c:v>6.0736990753964131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.368009199015872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9AB6-4297-B4DC-6C9BA2C93ED9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1269,6 +1468,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1359,6 +1589,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Trend N^2 log(N)</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1423,28 +1656,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1059.6634844037515</c:v>
+                  <c:v>12.264024164105203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1380.3652439172922</c:v>
+                  <c:v>12.528420910352049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1711.1347603115814</c:v>
+                  <c:v>12.743229531894555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2050.2766255345769</c:v>
+                  <c:v>12.924047504170447</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2396.5858439342423</c:v>
+                  <c:v>13.080117941992674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2749.1614410263037</c:v>
+                  <c:v>13.217368718551205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3107.3040817430083</c:v>
+                  <c:v>13.339828280701758</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3470.4550893585051</c:v>
+                  <c:v>13.45035852137911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1453,6 +1686,109 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4709-44E2-9F7D-6A414E7C9DC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FFT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-6.9080662974720184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.2147998704002205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.2164705151976891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.8058037789590875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.8097720381762539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.5216526825833716</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.2989146004226129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.9622242711452538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-34BB-4C29-9A4B-00B7F52DA779}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1600,6 +1936,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4309,8 +4676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13D39B3-3A93-42D3-AB78-940FF1136E5F}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4341,19 +4708,20 @@
         <v>200</v>
       </c>
       <c r="B2">
-        <f>LOG(C11, 2.7182818)</f>
+        <f t="shared" ref="B2:B9" si="0">LOG(C11, 2.7182818)</f>
         <v>-6.9080662974720184</v>
       </c>
       <c r="C2" s="1">
-        <v>27.9743332862854</v>
+        <f>LOG(27.9743332862854,2.7182818)</f>
+        <v>3.3312874563078014</v>
       </c>
       <c r="D2">
-        <f>A2*LOG(A2,2.7182818)</f>
-        <v>1059.6634844037515</v>
+        <f>LOG(A2*A2*LOG(A2,2.7182818),2.7182818)</f>
+        <v>12.264024164105203</v>
       </c>
       <c r="E2">
-        <f>A2*A2*A2</f>
-        <v>8000000</v>
+        <f t="shared" ref="E2:E9" si="1">LOG(A2*A2*A2,2.7182818)</f>
+        <v>15.894952266056274</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -4365,19 +4733,20 @@
         <v>250</v>
       </c>
       <c r="B3">
-        <f>LOG(C12, 2.7182818)</f>
+        <f t="shared" si="0"/>
         <v>-6.2147998704002205</v>
       </c>
       <c r="C3" s="3">
-        <v>53.796663284301701</v>
+        <f>LOG(53.7966632843017,2.7182818)</f>
+        <v>3.985211486229649</v>
       </c>
       <c r="D3">
-        <f>A3*LOG(A3,2.7182818)</f>
-        <v>1380.3652439172922</v>
+        <f>LOG(A3*A2*LOG(A3,2.7182818),2.7182818)</f>
+        <v>12.528420910352049</v>
       </c>
       <c r="E3">
-        <f>A3*A3*A3</f>
-        <v>15625000</v>
+        <f t="shared" si="1"/>
+        <v>16.564382927007504</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -4389,19 +4758,20 @@
         <v>300</v>
       </c>
       <c r="B4">
-        <f>LOG(C13, 2.7182818)</f>
+        <f t="shared" si="0"/>
         <v>-6.2164705151976891</v>
       </c>
       <c r="C4" s="3">
-        <v>93.660451650619507</v>
+        <f>LOG(93.6604516506195,2.7182818)</f>
+        <v>4.5396760735078514</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D9" si="0">A4*LOG(A4,2.7182818)</f>
-        <v>1711.1347603115814</v>
+        <f>LOG(A4*A2*LOG(A4,2.7182818),2.7182818)</f>
+        <v>12.743229531894555</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E9" si="1">A4*A4*A4</f>
-        <v>27000000</v>
+        <f t="shared" si="1"/>
+        <v>17.111347603115817</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4409,19 +4779,20 @@
         <v>350</v>
       </c>
       <c r="B5">
-        <f>LOG(C14, 2.7182818)</f>
+        <f t="shared" si="0"/>
         <v>-5.8058037789590875</v>
       </c>
       <c r="C5" s="2">
-        <v>150.67432212829499</v>
+        <f>LOG(150.674322128295,2.7182818)</f>
+        <v>5.0151207529651307</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>2050.2766255345769</v>
+        <f>LOG(A5*A2*LOG(A5,2.7182818),2.7182818)</f>
+        <v>12.924047504170447</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>42875000</v>
+        <v>17.57379964743923</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4429,19 +4800,20 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <f>LOG(C15, 2.7182818)</f>
+        <f t="shared" si="0"/>
         <v>-5.8097720381762539</v>
       </c>
       <c r="C6" s="2">
-        <v>221.49955439567501</v>
+        <f>LOG(221.499554395675,2.7182818)</f>
+        <v>5.400420634265183</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>2396.5858439342423</v>
+        <f>LOG(A6*A2*LOG(A6,2.7182818),2.7182818)</f>
+        <v>13.080117941992674</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>64000000</v>
+        <v>17.97439382950682</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4449,19 +4821,20 @@
         <v>450</v>
       </c>
       <c r="B7">
-        <f>LOG(C16, 2.7182818)</f>
+        <f t="shared" si="0"/>
         <v>-5.5216526825833716</v>
       </c>
       <c r="C7" s="2">
-        <v>313.37751913070599</v>
+        <f>LOG(313.377519130706,2.7182818)</f>
+        <v>5.7474086553285</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>2749.1614410263037</v>
+        <f>LOG(A7*A2*LOG(A7,2.7182818),2.7182818)</f>
+        <v>13.217368718551205</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>91125000</v>
+        <v>18.327742940175359</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4469,19 +4842,20 @@
         <v>500</v>
       </c>
       <c r="B8">
-        <f>LOG(C17, 2.7182818)</f>
+        <f t="shared" si="0"/>
         <v>-5.2989146004226129</v>
       </c>
       <c r="C8" s="2">
-        <v>434.28413629531798</v>
+        <f>LOG(434.284136295318,2.7182818)</f>
+        <v>6.0736990753964131</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>3107.3040817430083</v>
+        <f>LOG(A8*A2*LOG(A8,2.7182818),2.7182818)</f>
+        <v>13.339828280701758</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>125000000</v>
+        <v>18.643824490458051</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4489,19 +4863,20 @@
         <v>550</v>
       </c>
       <c r="B9">
-        <f>LOG(C18, 2.7182818)</f>
+        <f t="shared" si="0"/>
         <v>-4.9622242711452538</v>
       </c>
       <c r="C9" s="3">
-        <v>582.89620375633206</v>
+        <f>LOG(582.896203756332,2.7182818)</f>
+        <v>6.368009199015872</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>3470.4550893585051</v>
+        <f>LOG(A9*A2*LOG(A9,2.7182818),2.7182818)</f>
+        <v>13.45035852137911</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>166375000</v>
+        <v>18.929755032864573</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4510,11 +4885,22 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
       <c r="C11" s="6">
         <v>9.9968910217285091E-4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>CORREL(B2:B9,D2:D9)</f>
+        <v>0.9754572706821546</v>
+      </c>
+      <c r="B12">
+        <f>CORREL(C2:C9,E2:E9)</f>
+        <v>0.99997121611234419</v>
+      </c>
       <c r="C12" s="6">
         <v>1.9996166229247999E-3</v>
       </c>
@@ -4528,6 +4914,7 @@
       <c r="C14" s="6">
         <v>3.0100345611572201E-3</v>
       </c>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="6">
